--- a/biology/Médecine/Amibes_(maladie_professionnelle)/Amibes_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Amibes_(maladie_professionnelle)/Amibes_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une amibiase soit reconnue comme maladie professionnelle en France.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -514,15 +526,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Étiologie
-L'amibiase ou amabiase, est une maladie infectieuse due à un parasite microscopique, un protozoaire hématophage dénommé Entamoeba histolytica, transmis par l'eau contaminée.
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amibes_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amibes_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'amibiase ou amabiase, est une maladie infectieuse due à un parasite microscopique, un protozoaire hématophage dénommé Entamoeba histolytica, transmis par l'eau contaminée.
 L’amibe est un protozoaire qui fait partie de la classe des Rhizopodes.
 Il existe trois genres qui peuvent infester l'homme, mais seule Entamoeba histolytica est réellement pathogène.
-Données professionnelles
-La contamination professionnelle peut se produire dans les laboratoires de bactériologie ou de parasitologie à la suite de manipulation de prélèvements biologiques contaminés.
-Données médicales
-L'amibiase se manifeste par une diarrhée sanglante de type dysentérique, qui se propage sur un mode épidémique et fait de très nombreux morts dans les pays en voie de développement. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amibes_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amibes_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La contamination professionnelle peut se produire dans les laboratoires de bactériologie ou de parasitologie à la suite de manipulation de prélèvements biologiques contaminés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amibes_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amibes_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'amibiase se manifeste par une diarrhée sanglante de type dysentérique, qui se propage sur un mode épidémique et fait de très nombreux morts dans les pays en voie de développement. 
 Outre l'atteinte digestive, le parasite peut également infecter d'autres organes tels le foie, le poumon et le cerveau.
 Le traitement repose essentiellement sur un antibiotique et antiparasitaire, le metronidazole.
 </t>
